--- a/Test Data/TC_71695_Verify_Battery_Standby_On_Addition_Deletion_Of_RBus_Connections_And_XBus_Template.xlsx
+++ b/Test Data/TC_71695_Verify_Battery_Standby_On_Addition_Deletion_Of_RBus_Connections_And_XBus_Template.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCB8AFA-7FCE-4254-B706-1CEF0F940854}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Color Codes</t>
   </si>
@@ -167,12 +166,24 @@
   </si>
   <si>
     <t>Zonal Alarm/Fault Display 40</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,11 +617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +644,7 @@
     <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -644,7 +655,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -657,7 +668,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -670,7 +681,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -683,7 +694,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -692,7 +703,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="I6" s="23" t="s">
         <v>28</v>
@@ -715,7 +726,7 @@
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
     </row>
-    <row r="7" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -779,8 +790,14 @@
       <c r="V7" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>42</v>
       </c>
@@ -843,6 +860,12 @@
       </c>
       <c r="V8" s="16">
         <v>0.441</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71695_Verify_Battery_Standby_On_Addition_Deletion_Of_RBus_Connections_And_XBus_Template.xlsx
+++ b/Test Data/TC_71695_Verify_Battery_Standby_On_Addition_Deletion_Of_RBus_Connections_And_XBus_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723D5884-8DBE-4F33-8D43-93F2CA1DC390}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="8" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Color Codes</t>
   </si>
@@ -133,9 +128,6 @@
   </si>
   <si>
     <t>Alarm Load</t>
-  </si>
-  <si>
-    <t>Battery Sytandby</t>
   </si>
   <si>
     <t>Default Battery Standby</t>
@@ -183,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,11 +609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,7 +623,7 @@
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -644,7 +636,7 @@
     <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -652,10 +644,14 @@
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -665,10 +661,14 @@
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -681,7 +681,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -703,7 +703,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="I6" s="23" t="s">
         <v>28</v>
@@ -720,13 +720,13 @@
       <c r="Q6" s="23"/>
       <c r="R6" s="17"/>
       <c r="S6" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
     </row>
-    <row r="7" spans="1:24" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -743,10 +743,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>27</v>
@@ -773,39 +773,33 @@
         <v>23</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R7" s="11" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="V7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="V7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>13</v>
@@ -835,13 +829,13 @@
         <v>0.03</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="10">
         <v>8.0000000000000004E-4</v>
@@ -860,12 +854,6 @@
       </c>
       <c r="V8" s="16">
         <v>0.441</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71695_Verify_Battery_Standby_On_Addition_Deletion_Of_RBus_Connections_And_XBus_Template.xlsx
+++ b/Test Data/TC_71695_Verify_Battery_Standby_On_Addition_Deletion_Of_RBus_Connections_And_XBus_Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723D5884-8DBE-4F33-8D43-93F2CA1DC390}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="8" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Color Codes</t>
   </si>
@@ -166,16 +165,19 @@
     <t>StandbyLoadingDetail</t>
   </si>
   <si>
-    <t>Battery Alarm (A)</t>
-  </si>
-  <si>
-    <t>Battery Standby (A)</t>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t>MPM800-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +628,7 @@
     <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
@@ -820,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="L8" s="10">
         <v>2.1999999999999999E-2</v>
@@ -870,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71695_Verify_Battery_Standby_On_Addition_Deletion_Of_RBus_Connections_And_XBus_Template.xlsx
+++ b/Test Data/TC_71695_Verify_Battery_Standby_On_Addition_Deletion_Of_RBus_Connections_And_XBus_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562E6AEE-244D-477F-9144-760A12F8EC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="8" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Color Codes</t>
   </si>
@@ -150,15 +151,6 @@
     <t>Battery and Alarm Load Values</t>
   </si>
   <si>
-    <t>FIRECLASS 64-2</t>
-  </si>
-  <si>
-    <t>CPU 800</t>
-  </si>
-  <si>
-    <t>Zonal Alarm/Fault Display 40</t>
-  </si>
-  <si>
     <t>AlarmLoadingDetail</t>
   </si>
   <si>
@@ -172,12 +164,24 @@
   </si>
   <si>
     <t>MPM800-1</t>
+  </si>
+  <si>
+    <t>FC64-2</t>
+  </si>
+  <si>
+    <t>NGC-1928/T960 OR TC-71695 </t>
+  </si>
+  <si>
+    <t>XIOM</t>
+  </si>
+  <si>
+    <t>verifyBatteryStandbyAndAlarmLoadOnRbusAddDelete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,10 +651,10 @@
       <c r="D1" s="21"/>
       <c r="E1" s="12"/>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -664,17 +668,19 @@
       <c r="D2" s="22"/>
       <c r="E2" s="13"/>
       <c r="F2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
         <v>4</v>
@@ -683,11 +689,13 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -795,13 +803,13 @@
     </row>
     <row r="8" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>13</v>
@@ -810,10 +818,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="16">
-        <v>0.25</v>
+        <v>0.223</v>
       </c>
       <c r="G8" s="16">
-        <v>0.441</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>25</v>
@@ -822,7 +830,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L8" s="10">
         <v>2.1999999999999999E-2</v>
@@ -831,31 +839,31 @@
         <v>0.03</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="10">
-        <v>8.0000000000000004E-4</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="R8" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="S8" s="19">
-        <v>0.27300000000000002</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="T8" s="19">
-        <v>0.50600000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="U8" s="16">
-        <v>0.25</v>
+        <v>0.223</v>
       </c>
       <c r="V8" s="16">
-        <v>0.441</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
